--- a/biology/Médecine/Cavité_thoracique_(anatomie_humaine)/Cavité_thoracique_(anatomie_humaine).xlsx
+++ b/biology/Médecine/Cavité_thoracique_(anatomie_humaine)/Cavité_thoracique_(anatomie_humaine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cavit%C3%A9_thoracique_(anatomie_humaine)</t>
+          <t>Cavité_thoracique_(anatomie_humaine)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La cavité thoracique est une cavité du thorax contenu dans la cage thoracique.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cavit%C3%A9_thoracique_(anatomie_humaine)</t>
+          <t>Cavité_thoracique_(anatomie_humaine)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Limites</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La cavité thoracique est limitée en avant, latéralement et en arrière par la cage thoracique et les aponévroses et muscles recouvrant celle-ci. Sa paroi postérieure forme de chaque côté de la colonne thoracique deux gouttières larges et profondes : les sillons pulmonaires.
 Au centre entre les deux poumons se trouve la loge médiastinale.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cavit%C3%A9_thoracique_(anatomie_humaine)</t>
+          <t>Cavité_thoracique_(anatomie_humaine)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Contenu</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le contenu de la cavité thoracique se répartit en plusieurs compartiments recouvert de mésothélium :
 latéralement les deux cavités pleurales,
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cavit%C3%A9_thoracique_(anatomie_humaine)</t>
+          <t>Cavité_thoracique_(anatomie_humaine)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>Anatomie fonctionnelle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le volume de la cavité thoracique varie sous l'action des muscles respiratoires, au cours des différents cycles respiratoires.
 </t>
